--- a/SPPSApi/Doc/Template/FS0303_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0303_Export.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C2D6CB-04FB-4139-9BBB-3A32E20AF2C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F014B56D-AB31-423B-87D9-08A5C64ABEF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,12 +12,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>同步数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>内外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出荷地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +174,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>旧型1年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型2年</t>
+  </si>
+  <si>
+    <t>旧型3年</t>
+  </si>
+  <si>
+    <t>旧型4年</t>
+  </si>
+  <si>
+    <t>旧型5年</t>
+  </si>
+  <si>
+    <t>旧型6年</t>
+  </si>
+  <si>
+    <t>旧型7年</t>
+  </si>
+  <si>
+    <t>旧型8年</t>
+  </si>
+  <si>
+    <t>旧型9年</t>
+  </si>
+  <si>
+    <t>旧型10年</t>
+  </si>
+  <si>
+    <t>旧型11年</t>
+  </si>
+  <si>
+    <t>旧型12年</t>
+  </si>
+  <si>
+    <t>旧型13年</t>
+  </si>
+  <si>
+    <t>旧型14年</t>
+  </si>
+  <si>
+    <t>旧型15年</t>
+  </si>
+  <si>
     <t>执行标准No</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,86 +232,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出荷地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产商名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旧型1年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旧型2年</t>
-  </si>
-  <si>
-    <t>旧型3年</t>
-  </si>
-  <si>
-    <t>旧型4年</t>
-  </si>
-  <si>
-    <t>旧型5年</t>
-  </si>
-  <si>
-    <t>旧型6年</t>
-  </si>
-  <si>
-    <t>旧型7年</t>
-  </si>
-  <si>
-    <t>旧型8年</t>
-  </si>
-  <si>
-    <t>旧型9年</t>
-  </si>
-  <si>
-    <t>旧型10年</t>
-  </si>
-  <si>
-    <t>旧型11年</t>
-  </si>
-  <si>
-    <t>旧型12年</t>
-  </si>
-  <si>
-    <t>旧型13年</t>
-  </si>
-  <si>
-    <t>旧型14年</t>
-  </si>
-  <si>
-    <t>旧型15年</t>
+    <t>旧型必要预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程/供应商/包装工厂信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -266,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -302,17 +310,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,223 +762,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE1"/>
+  <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="BC1" sqref="BC1:BC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
     <col min="11" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.33203125" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" customWidth="1"/>
     <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
     <col min="16" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" customWidth="1"/>
+    <col min="19" max="19" width="6.5546875" customWidth="1"/>
+    <col min="20" max="20" width="11.5546875" customWidth="1"/>
     <col min="21" max="21" width="12.5546875" customWidth="1"/>
     <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" customWidth="1"/>
+    <col min="23" max="23" width="8.44140625" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" customWidth="1"/>
+    <col min="25" max="25" width="11.44140625" customWidth="1"/>
     <col min="26" max="26" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.88671875" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" customWidth="1"/>
     <col min="28" max="28" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.109375" customWidth="1"/>
     <col min="31" max="31" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.44140625" customWidth="1"/>
+    <col min="35" max="35" width="20.109375" customWidth="1"/>
+    <col min="36" max="36" width="15.6640625" customWidth="1"/>
+    <col min="37" max="37" width="6.21875" customWidth="1"/>
+    <col min="38" max="38" width="7.44140625" customWidth="1"/>
+    <col min="39" max="39" width="13.109375" customWidth="1"/>
+    <col min="40" max="40" width="8.5546875" customWidth="1"/>
     <col min="55" max="55" width="11.6640625" customWidth="1"/>
-    <col min="57" max="57" width="11" customWidth="1"/>
+    <col min="57" max="57" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AK1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AL1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AM1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:AB1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="AN1:BB1"/>
+    <mergeCell ref="BC1:BC2"/>
+    <mergeCell ref="BD1:BD2"/>
+    <mergeCell ref="BE1:BE2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SPPSApi/Doc/Template/FS0303_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0303_Export.xlsx
@@ -1,23 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F014B56D-AB31-423B-87D9-08A5C64ABEF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="AL1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+只能通过画面修改</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>同步数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,14 +270,18 @@
   </si>
   <si>
     <t>工程/供应商/包装工厂信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,8 +296,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +320,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,10 +451,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,20 +480,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +546,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -517,26 +579,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -569,23 +614,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -761,336 +789,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="BC1" sqref="BC1:BC2"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AK14" sqref="AK14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="11" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.109375" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" customWidth="1"/>
-    <col min="20" max="20" width="11.5546875" customWidth="1"/>
-    <col min="21" max="21" width="12.5546875" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.44140625" customWidth="1"/>
-    <col min="24" max="24" width="10.109375" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" customWidth="1"/>
-    <col min="26" max="26" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" customWidth="1"/>
-    <col min="28" max="28" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.109375" customWidth="1"/>
-    <col min="31" max="31" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.109375" customWidth="1"/>
-    <col min="36" max="36" width="15.6640625" customWidth="1"/>
-    <col min="37" max="37" width="6.21875" customWidth="1"/>
-    <col min="38" max="38" width="7.44140625" customWidth="1"/>
-    <col min="39" max="39" width="13.109375" customWidth="1"/>
-    <col min="40" max="40" width="8.5546875" customWidth="1"/>
-    <col min="55" max="55" width="11.6640625" customWidth="1"/>
-    <col min="57" max="57" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="12" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" customWidth="1"/>
+    <col min="17" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="6.5546875" customWidth="1"/>
+    <col min="21" max="21" width="11.5546875" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.44140625" customWidth="1"/>
+    <col min="25" max="25" width="10.109375" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" customWidth="1"/>
+    <col min="27" max="27" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" customWidth="1"/>
+    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.109375" customWidth="1"/>
+    <col min="32" max="32" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.109375" customWidth="1"/>
+    <col min="37" max="37" width="15.6640625" customWidth="1"/>
+    <col min="38" max="38" width="6.21875" customWidth="1"/>
+    <col min="39" max="39" width="7.44140625" customWidth="1"/>
+    <col min="40" max="40" width="13.109375" customWidth="1"/>
+    <col min="41" max="41" width="8.5546875" customWidth="1"/>
+    <col min="56" max="56" width="11.6640625" customWidth="1"/>
+    <col min="58" max="58" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="5" t="s">
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="5" t="s">
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BE1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="1" t="s">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="1" t="s">
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="6"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:AB1"/>
+  <mergeCells count="35">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="AN1:BB1"/>
-    <mergeCell ref="BC1:BC2"/>
+    <mergeCell ref="AO1:BC1"/>
     <mergeCell ref="BD1:BD2"/>
     <mergeCell ref="BE1:BE2"/>
-    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="BF1:BF2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="AL1:AL2"/>
     <mergeCell ref="AM1:AM2"/>
-    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:AC1"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1103,7 +1138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SPPSApi/Doc/Template/FS0303_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0303_Export.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>同步数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,10 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,15 +466,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -485,6 +480,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF2"/>
+  <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AK14" sqref="AK14"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="BB11" sqref="BB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -836,10 +840,10 @@
     <col min="40" max="40" width="13.109375" customWidth="1"/>
     <col min="41" max="41" width="8.5546875" customWidth="1"/>
     <col min="56" max="56" width="11.6640625" customWidth="1"/>
-    <col min="58" max="58" width="10.88671875" customWidth="1"/>
+    <col min="58" max="59" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
@@ -897,18 +901,18 @@
       <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="6"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="11"/>
       <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
@@ -933,7 +937,7 @@
       <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AL1" s="7" t="s">
         <v>36</v>
       </c>
       <c r="AM1" s="2" t="s">
@@ -942,23 +946,23 @@
       <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AO1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="9"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="6"/>
       <c r="BD1" s="2" t="s">
         <v>54</v>
       </c>
@@ -968,8 +972,11 @@
       <c r="BF1" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="BG1" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1027,7 +1034,7 @@
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
-      <c r="AL2" s="11"/>
+      <c r="AL2" s="8"/>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="1" t="s">
@@ -1078,9 +1085,30 @@
       <c r="BD2" s="3"/>
       <c r="BE2" s="3"/>
       <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
+    <mergeCell ref="BG1:BG2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:AC1"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="AO1:BC1"/>
     <mergeCell ref="BD1:BD2"/>
@@ -1097,25 +1125,6 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:AC1"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AF2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0303_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0303_Export.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C52D31-6B28-4492-B83B-0245A67F7C5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -29,6 +30,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -38,6 +40,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -76,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车型(技术)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>车型(开发)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,13 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防錆</t>
-  </si>
-  <si>
-    <t>防錆指示书号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>旧型1年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,10 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>旧型必要预测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工程/供应商/包装工厂信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,13 +266,29 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧型必要数预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防锈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防锈指示书号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型(设计)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,6 +308,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -311,6 +316,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -550,7 +556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,9 +589,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,6 +641,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -793,59 +833,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="BB11" sqref="BB11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.21875" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="12" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.109375" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" customWidth="1"/>
-    <col min="17" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.44140625" customWidth="1"/>
-    <col min="20" max="20" width="6.5546875" customWidth="1"/>
-    <col min="21" max="21" width="11.5546875" customWidth="1"/>
-    <col min="22" max="22" width="12.5546875" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.44140625" customWidth="1"/>
-    <col min="25" max="25" width="10.109375" customWidth="1"/>
-    <col min="26" max="26" width="11.44140625" customWidth="1"/>
-    <col min="27" max="27" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.109375" customWidth="1"/>
-    <col min="32" max="32" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.109375" customWidth="1"/>
-    <col min="37" max="37" width="15.6640625" customWidth="1"/>
-    <col min="38" max="38" width="6.21875" customWidth="1"/>
-    <col min="39" max="39" width="7.44140625" customWidth="1"/>
-    <col min="40" max="40" width="13.109375" customWidth="1"/>
-    <col min="41" max="41" width="8.5546875" customWidth="1"/>
-    <col min="56" max="56" width="11.6640625" customWidth="1"/>
-    <col min="58" max="59" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" customWidth="1"/>
+    <col min="6" max="6" width="6.08984375" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" customWidth="1"/>
+    <col min="10" max="10" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.90625" customWidth="1"/>
+    <col min="12" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.08984375" customWidth="1"/>
+    <col min="15" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.36328125" customWidth="1"/>
+    <col min="17" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" customWidth="1"/>
+    <col min="20" max="20" width="6.54296875" customWidth="1"/>
+    <col min="21" max="21" width="11.54296875" customWidth="1"/>
+    <col min="22" max="22" width="12.54296875" customWidth="1"/>
+    <col min="23" max="23" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.453125" customWidth="1"/>
+    <col min="25" max="25" width="10.08984375" customWidth="1"/>
+    <col min="26" max="26" width="11.453125" customWidth="1"/>
+    <col min="27" max="27" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6328125" customWidth="1"/>
+    <col min="29" max="29" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.08984375" customWidth="1"/>
+    <col min="32" max="32" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.08984375" customWidth="1"/>
+    <col min="37" max="37" width="15.6328125" customWidth="1"/>
+    <col min="38" max="38" width="6.1796875" customWidth="1"/>
+    <col min="39" max="39" width="7.453125" customWidth="1"/>
+    <col min="40" max="40" width="13.08984375" customWidth="1"/>
+    <col min="41" max="41" width="8.54296875" customWidth="1"/>
+    <col min="56" max="56" width="11.6328125" customWidth="1"/>
+    <col min="58" max="59" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -866,43 +906,43 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="T1" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
@@ -914,37 +954,37 @@
       <c r="AB1" s="10"/>
       <c r="AC1" s="11"/>
       <c r="AD1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="AM1" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AO1" s="4" t="s">
         <v>57</v>
@@ -964,16 +1004,16 @@
       <c r="BB1" s="5"/>
       <c r="BC1" s="6"/>
       <c r="BD1" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="BF1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BG1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
@@ -997,34 +1037,34 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
@@ -1038,49 +1078,49 @@
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="BD2" s="3"/>
       <c r="BE2" s="3"/>
@@ -1099,21 +1139,21 @@
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="BF1:BF2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M1:M2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="AO1:BC1"/>
     <mergeCell ref="BD1:BD2"/>
     <mergeCell ref="BE1:BE2"/>
-    <mergeCell ref="BF1:BF2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
     <mergeCell ref="AJ1:AJ2"/>
@@ -1134,12 +1174,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1147,12 +1187,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0303_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0303_Export.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C52D31-6B28-4492-B83B-0245A67F7C5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +287,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,6 +471,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,15 +494,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,7 +555,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,26 +588,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,23 +623,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -833,54 +798,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AQ15" sqref="AQ15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" customWidth="1"/>
-    <col min="5" max="5" width="7.90625" customWidth="1"/>
-    <col min="6" max="6" width="6.08984375" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" customWidth="1"/>
-    <col min="10" max="10" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.90625" customWidth="1"/>
-    <col min="12" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.08984375" customWidth="1"/>
-    <col min="15" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.36328125" customWidth="1"/>
-    <col min="17" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" customWidth="1"/>
-    <col min="20" max="20" width="6.54296875" customWidth="1"/>
-    <col min="21" max="21" width="11.54296875" customWidth="1"/>
-    <col min="22" max="22" width="12.54296875" customWidth="1"/>
-    <col min="23" max="23" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.453125" customWidth="1"/>
-    <col min="25" max="25" width="10.08984375" customWidth="1"/>
-    <col min="26" max="26" width="11.453125" customWidth="1"/>
-    <col min="27" max="27" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6328125" customWidth="1"/>
-    <col min="29" max="29" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.08984375" customWidth="1"/>
-    <col min="32" max="32" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.08984375" customWidth="1"/>
-    <col min="37" max="37" width="15.6328125" customWidth="1"/>
-    <col min="38" max="38" width="6.1796875" customWidth="1"/>
-    <col min="39" max="39" width="7.453125" customWidth="1"/>
-    <col min="40" max="40" width="13.08984375" customWidth="1"/>
-    <col min="41" max="41" width="8.54296875" customWidth="1"/>
-    <col min="56" max="56" width="11.6328125" customWidth="1"/>
-    <col min="58" max="59" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="12" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" customWidth="1"/>
+    <col min="17" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="20" max="20" width="6.5546875" customWidth="1"/>
+    <col min="21" max="21" width="11.5546875" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.44140625" customWidth="1"/>
+    <col min="25" max="25" width="10.109375" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" customWidth="1"/>
+    <col min="27" max="27" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" customWidth="1"/>
+    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.109375" customWidth="1"/>
+    <col min="32" max="32" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.109375" customWidth="1"/>
+    <col min="37" max="37" width="15.6640625" customWidth="1"/>
+    <col min="38" max="38" width="6.21875" customWidth="1"/>
+    <col min="39" max="39" width="7.44140625" customWidth="1"/>
+    <col min="40" max="40" width="13.109375" customWidth="1"/>
+    <col min="41" max="41" width="11.6640625" customWidth="1"/>
+    <col min="43" max="44" width="10.88671875" customWidth="1"/>
+    <col min="45" max="45" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
@@ -941,18 +906,18 @@
       <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="11"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="6"/>
       <c r="AD1" s="2" t="s">
         <v>27</v>
       </c>
@@ -977,7 +942,7 @@
       <c r="AK1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AL1" s="10" t="s">
         <v>35</v>
       </c>
       <c r="AM1" s="2" t="s">
@@ -986,35 +951,35 @@
       <c r="AN1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="9"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -1074,62 +1039,83 @@
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
-      <c r="AL2" s="8"/>
+      <c r="AL2" s="11"/>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
-      <c r="AO2" s="1" t="s">
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
-      <c r="BG2" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="BG1:BG2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AS1:BG1"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="AR1:AR2"/>
     <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="K1:K2"/>
@@ -1143,28 +1129,7 @@
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="BF1:BF2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AO1:BC1"/>
-    <mergeCell ref="BD1:BD2"/>
-    <mergeCell ref="BE1:BE2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AM1:AM2"/>
-    <mergeCell ref="AN1:AN2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="AQ1:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1174,12 +1139,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1187,12 +1152,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0303_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0303_Export.xlsx
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 生确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>区分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,6 +277,10 @@
   </si>
   <si>
     <t>车型(设计)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,15 +471,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -494,6 +485,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AQ15" sqref="AQ15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -850,7 +850,7 @@
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -862,124 +862,124 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="6"/>
+      <c r="T1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="11"/>
       <c r="AD1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="AM1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="AO1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AQ1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="AR1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AS1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="9"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="6"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -1002,34 +1002,34 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
@@ -1039,7 +1039,7 @@
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
-      <c r="AL2" s="11"/>
+      <c r="AL2" s="8"/>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
@@ -1047,53 +1047,73 @@
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
       <c r="AS2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:AC1"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="AS1:BG1"/>
@@ -1110,26 +1130,6 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:AC1"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="AQ1:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0303_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0303_Export.xlsx
@@ -182,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>旧型年限生产区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实施年限(年限)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,6 +277,10 @@
   </si>
   <si>
     <t>生确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年限区分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,6 +471,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -485,15 +494,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -850,7 +850,7 @@
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -871,7 +871,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>5</v>
@@ -906,18 +906,18 @@
       <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="11"/>
+      <c r="T1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="6"/>
       <c r="AD1" s="2" t="s">
         <v>26</v>
       </c>
@@ -937,49 +937,49 @@
         <v>31</v>
       </c>
       <c r="AJ1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="AM1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="AO1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AQ1" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AR1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AS1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="5"/>
-      <c r="BG1" s="6"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="9"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -1039,7 +1039,7 @@
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
-      <c r="AL2" s="8"/>
+      <c r="AL2" s="11"/>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
@@ -1047,73 +1047,53 @@
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
       <c r="AS2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:AC1"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="AS1:BG1"/>
@@ -1130,6 +1110,26 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:AC1"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="AQ1:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0303_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0303_Export.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6177CE7B-DE9A-43D1-A2CB-790838961D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +17,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -287,7 +288,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,15 +472,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -494,6 +486,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,7 +556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -588,9 +589,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -623,6 +641,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -798,54 +833,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AJ9" sqref="AJ9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.21875" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="12" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.109375" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" customWidth="1"/>
-    <col min="17" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.44140625" customWidth="1"/>
-    <col min="20" max="20" width="6.5546875" customWidth="1"/>
-    <col min="21" max="21" width="11.5546875" customWidth="1"/>
-    <col min="22" max="22" width="12.5546875" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.44140625" customWidth="1"/>
-    <col min="25" max="25" width="10.109375" customWidth="1"/>
-    <col min="26" max="26" width="11.44140625" customWidth="1"/>
-    <col min="27" max="27" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.109375" customWidth="1"/>
-    <col min="32" max="32" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.109375" customWidth="1"/>
-    <col min="37" max="37" width="15.6640625" customWidth="1"/>
-    <col min="38" max="38" width="6.21875" customWidth="1"/>
-    <col min="39" max="39" width="7.44140625" customWidth="1"/>
-    <col min="40" max="40" width="13.109375" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" customWidth="1"/>
-    <col min="43" max="44" width="10.88671875" customWidth="1"/>
-    <col min="45" max="45" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" customWidth="1"/>
+    <col min="6" max="6" width="6.08984375" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" customWidth="1"/>
+    <col min="10" max="10" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.90625" customWidth="1"/>
+    <col min="12" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.08984375" customWidth="1"/>
+    <col min="15" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.36328125" customWidth="1"/>
+    <col min="17" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" customWidth="1"/>
+    <col min="20" max="20" width="6.54296875" customWidth="1"/>
+    <col min="21" max="21" width="11.54296875" customWidth="1"/>
+    <col min="22" max="22" width="12.54296875" customWidth="1"/>
+    <col min="23" max="23" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.453125" customWidth="1"/>
+    <col min="25" max="25" width="10.08984375" customWidth="1"/>
+    <col min="26" max="26" width="11.453125" customWidth="1"/>
+    <col min="27" max="27" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6328125" customWidth="1"/>
+    <col min="29" max="29" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.08984375" customWidth="1"/>
+    <col min="32" max="32" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.08984375" customWidth="1"/>
+    <col min="37" max="37" width="15.6328125" customWidth="1"/>
+    <col min="38" max="38" width="6.1796875" customWidth="1"/>
+    <col min="39" max="39" width="7.453125" customWidth="1"/>
+    <col min="40" max="40" width="13.08984375" customWidth="1"/>
+    <col min="41" max="41" width="11.6328125" customWidth="1"/>
+    <col min="43" max="44" width="10.90625" customWidth="1"/>
+    <col min="45" max="45" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
@@ -906,18 +941,18 @@
       <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="6"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="11"/>
       <c r="AD1" s="2" t="s">
         <v>26</v>
       </c>
@@ -942,7 +977,7 @@
       <c r="AK1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AL1" s="7" t="s">
         <v>33</v>
       </c>
       <c r="AM1" s="2" t="s">
@@ -963,23 +998,23 @@
       <c r="AR1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AS1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="9"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="6"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -1039,7 +1074,7 @@
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
-      <c r="AL2" s="11"/>
+      <c r="AL2" s="8"/>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
@@ -1094,6 +1129,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:AC1"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="AS1:BG1"/>
@@ -1110,26 +1165,6 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:AC1"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="AQ1:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1139,12 +1174,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1152,12 +1187,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
